--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2102,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.7461875291913</v>
+        <v>152.6546284621516</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9501107361478</v>
+        <v>208.8687973087226</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4025913957599</v>
+        <v>188.9346524428358</v>
       </c>
       <c r="AD2" t="n">
-        <v>103746.1875291913</v>
+        <v>152654.6284621516</v>
       </c>
       <c r="AE2" t="n">
-        <v>141950.1107361478</v>
+        <v>208868.7973087226</v>
       </c>
       <c r="AF2" t="n">
         <v>1.774952657227559e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.842592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>128402.5913957599</v>
+        <v>188934.6524428358</v>
       </c>
     </row>
     <row r="3">
@@ -2208,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.71166579031626</v>
+        <v>118.0440752124373</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.3792148167419</v>
+        <v>161.5131114426416</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.7949529114617</v>
+        <v>146.098526771676</v>
       </c>
       <c r="AD3" t="n">
-        <v>88711.66579031626</v>
+        <v>118044.0752124373</v>
       </c>
       <c r="AE3" t="n">
-        <v>121379.2148167418</v>
+        <v>161513.1114426416</v>
       </c>
       <c r="AF3" t="n">
         <v>2.214480241657688e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>109794.9529114617</v>
+        <v>146098.526771676</v>
       </c>
     </row>
     <row r="4">
@@ -2314,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.03005204245743</v>
+        <v>117.1499717050695</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.7641596473886</v>
+        <v>160.2897595787988</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.5747380951081</v>
+        <v>144.9919298927328</v>
       </c>
       <c r="AD4" t="n">
-        <v>78030.05204245742</v>
+        <v>117149.9717050695</v>
       </c>
       <c r="AE4" t="n">
-        <v>106764.1596473886</v>
+        <v>160289.7595787988</v>
       </c>
       <c r="AF4" t="n">
         <v>2.296793349071328e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.828703703703705</v>
       </c>
       <c r="AH4" t="n">
-        <v>96574.7380951081</v>
+        <v>144991.9298927328</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.83527985475658</v>
+        <v>106.235009084582</v>
       </c>
       <c r="AB5" t="n">
-        <v>105.1294196305483</v>
+        <v>145.3554261872895</v>
       </c>
       <c r="AC5" t="n">
-        <v>95.09601537110245</v>
+        <v>131.4829083196359</v>
       </c>
       <c r="AD5" t="n">
-        <v>76835.27985475658</v>
+        <v>106235.009084582</v>
       </c>
       <c r="AE5" t="n">
-        <v>105129.4196305483</v>
+        <v>145355.4261872895</v>
       </c>
       <c r="AF5" t="n">
         <v>2.407692293458271e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.516203703703703</v>
       </c>
       <c r="AH5" t="n">
-        <v>95096.01537110245</v>
+        <v>131482.9083196359</v>
       </c>
     </row>
     <row r="6">
@@ -2526,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>76.87845202052908</v>
+        <v>106.2781812503545</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.1884896923797</v>
+        <v>145.4144962491209</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.14944786913806</v>
+        <v>131.5363408176715</v>
       </c>
       <c r="AD6" t="n">
-        <v>76878.45202052908</v>
+        <v>106278.1812503545</v>
       </c>
       <c r="AE6" t="n">
-        <v>105188.4896923797</v>
+        <v>145414.4962491209</v>
       </c>
       <c r="AF6" t="n">
         <v>2.406865094191017e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.516203703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>95149.44786913806</v>
+        <v>131536.3408176715</v>
       </c>
     </row>
   </sheetData>
@@ -2823,28 +2823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.0608132224456</v>
+        <v>127.7830098228775</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.8569337366786</v>
+        <v>174.8383514281111</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.2270790081625</v>
+        <v>158.1520245550283</v>
       </c>
       <c r="AD2" t="n">
-        <v>89060.81322244561</v>
+        <v>127783.0098228775</v>
       </c>
       <c r="AE2" t="n">
-        <v>121856.9337366786</v>
+        <v>174838.3514281111</v>
       </c>
       <c r="AF2" t="n">
         <v>2.209295134067363e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>110227.0790081625</v>
+        <v>158152.0245550283</v>
       </c>
     </row>
     <row r="3">
@@ -2929,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.54428179450842</v>
+        <v>115.2323129761596</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.7312632465886</v>
+        <v>157.6659343047733</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.73585847361174</v>
+        <v>142.6185188202976</v>
       </c>
       <c r="AD3" t="n">
-        <v>76544.28179450842</v>
+        <v>115232.3129761596</v>
       </c>
       <c r="AE3" t="n">
-        <v>104731.2632465886</v>
+        <v>157665.9343047733</v>
       </c>
       <c r="AF3" t="n">
         <v>2.556530282946073e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.712962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>94735.85847361175</v>
+        <v>142618.5188202976</v>
       </c>
     </row>
     <row r="4">
@@ -3035,28 +3035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.20186340603148</v>
+        <v>104.176191048651</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.8945071841558</v>
+        <v>142.5384605218887</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.07439983187365</v>
+        <v>128.9347899037039</v>
       </c>
       <c r="AD4" t="n">
-        <v>75201.86340603148</v>
+        <v>104176.191048651</v>
       </c>
       <c r="AE4" t="n">
-        <v>102894.5071841558</v>
+        <v>142538.4605218887</v>
       </c>
       <c r="AF4" t="n">
         <v>2.727684775823431e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.296296296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>93074.39983187366</v>
+        <v>128934.7899037039</v>
       </c>
     </row>
   </sheetData>
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.45867195357164</v>
+        <v>99.4577973650464</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.77290750095079</v>
+        <v>136.082546123146</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.44159843422182</v>
+        <v>123.0950189142424</v>
       </c>
       <c r="AD2" t="n">
-        <v>71458.67195357164</v>
+        <v>99457.7973650464</v>
       </c>
       <c r="AE2" t="n">
-        <v>97772.90750095079</v>
+        <v>136082.546123146</v>
       </c>
       <c r="AF2" t="n">
         <v>3.870899671177445e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>88441.59843422181</v>
+        <v>123095.0189142424</v>
       </c>
     </row>
     <row r="3">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.46804198334651</v>
+        <v>99.46716739482129</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.78572798906532</v>
+        <v>136.0953666112606</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.45319535294436</v>
+        <v>123.106615832965</v>
       </c>
       <c r="AD3" t="n">
-        <v>71468.04198334651</v>
+        <v>99467.16739482128</v>
       </c>
       <c r="AE3" t="n">
-        <v>97785.72798906532</v>
+        <v>136095.3666112606</v>
       </c>
       <c r="AF3" t="n">
         <v>3.874523992721194e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>88453.19535294436</v>
+        <v>123106.615832965</v>
       </c>
     </row>
   </sheetData>
@@ -3735,28 +3735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.21542837529998</v>
+        <v>112.1115434704342</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5448232566675</v>
+        <v>153.3959597884082</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.85352784413111</v>
+        <v>138.7560646788262</v>
       </c>
       <c r="AD2" t="n">
-        <v>74215.42837529998</v>
+        <v>112111.5434704342</v>
       </c>
       <c r="AE2" t="n">
-        <v>101544.8232566675</v>
+        <v>153395.9597884082</v>
       </c>
       <c r="AF2" t="n">
         <v>3.091095511649914e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.712962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>91853.52784413111</v>
+        <v>138756.0646788263</v>
       </c>
     </row>
     <row r="3">
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.79693795931675</v>
+        <v>101.1773285370486</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.60398209013968</v>
+        <v>138.4352845330396</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.09791783454843</v>
+        <v>125.2232152723856</v>
       </c>
       <c r="AD3" t="n">
-        <v>72796.93795931675</v>
+        <v>101177.3285370486</v>
       </c>
       <c r="AE3" t="n">
-        <v>99603.98209013967</v>
+        <v>138435.2845330396</v>
       </c>
       <c r="AF3" t="n">
         <v>3.380641348793809e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90097.91783454843</v>
+        <v>125223.2152723856</v>
       </c>
     </row>
   </sheetData>
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.3964783441137</v>
+        <v>98.08288810994044</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.31956734381637</v>
+        <v>134.2013346235956</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.12696302190813</v>
+        <v>121.3933475999116</v>
       </c>
       <c r="AD2" t="n">
-        <v>70396.4783441137</v>
+        <v>98082.88810994044</v>
       </c>
       <c r="AE2" t="n">
-        <v>96319.56734381638</v>
+        <v>134201.3346235956</v>
       </c>
       <c r="AF2" t="n">
         <v>4.347361915571415e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>87126.96302190813</v>
+        <v>121393.3475999116</v>
       </c>
     </row>
   </sheetData>
@@ -4435,28 +4435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.90548978112133</v>
+        <v>138.3818024376929</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.0126574687579</v>
+        <v>189.3400870694238</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.272502089321</v>
+        <v>171.2697349000526</v>
       </c>
       <c r="AD2" t="n">
-        <v>89905.48978112133</v>
+        <v>138381.8024376929</v>
       </c>
       <c r="AE2" t="n">
-        <v>123012.6574687579</v>
+        <v>189340.0870694238</v>
       </c>
       <c r="AF2" t="n">
         <v>2.110777427333573e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.939814814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>111272.502089321</v>
+        <v>171269.7349000525</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.55773316399048</v>
+        <v>116.3592825405162</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.1179121206321</v>
+        <v>159.2079037811135</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.99016752529096</v>
+        <v>144.0133248939841</v>
       </c>
       <c r="AD3" t="n">
-        <v>77557.73316399047</v>
+        <v>116359.2825405162</v>
       </c>
       <c r="AE3" t="n">
-        <v>106117.9121206321</v>
+        <v>159207.9037811135</v>
       </c>
       <c r="AF3" t="n">
         <v>2.413454726658444e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.944444444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>95990.16752529096</v>
+        <v>144013.3248939841</v>
       </c>
     </row>
     <row r="4">
@@ -4647,28 +4647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.69942140905799</v>
+        <v>104.7588876978335</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.5752879946062</v>
+        <v>143.3357317840616</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.6902078772568</v>
+        <v>129.6559707155926</v>
       </c>
       <c r="AD4" t="n">
-        <v>75699.42140905799</v>
+        <v>104758.8876978335</v>
       </c>
       <c r="AE4" t="n">
-        <v>103575.2879946062</v>
+        <v>143335.7317840616</v>
       </c>
       <c r="AF4" t="n">
         <v>2.629965138866863e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.377314814814814</v>
       </c>
       <c r="AH4" t="n">
-        <v>93690.20787725679</v>
+        <v>129655.9707155926</v>
       </c>
     </row>
     <row r="5">
@@ -4753,28 +4753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.67284485281787</v>
+        <v>104.7323111415934</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.5389247778836</v>
+        <v>143.299368567339</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.65731511490208</v>
+        <v>129.6230779532378</v>
       </c>
       <c r="AD5" t="n">
-        <v>75672.84485281787</v>
+        <v>104732.3111415934</v>
       </c>
       <c r="AE5" t="n">
-        <v>103538.9247778836</v>
+        <v>143299.368567339</v>
       </c>
       <c r="AF5" t="n">
         <v>2.63222392468272e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.36574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>93657.31511490207</v>
+        <v>129623.0779532378</v>
       </c>
     </row>
   </sheetData>
@@ -5050,28 +5050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.72693271237881</v>
+        <v>97.22816799405952</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.40346547220859</v>
+        <v>133.0318688534576</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.29829262716923</v>
+        <v>120.3354940015197</v>
       </c>
       <c r="AD2" t="n">
-        <v>69726.93271237881</v>
+        <v>97228.16799405952</v>
       </c>
       <c r="AE2" t="n">
-        <v>95403.4654722086</v>
+        <v>133031.8688534577</v>
       </c>
       <c r="AF2" t="n">
         <v>4.690680724924433e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.400462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>86298.29262716923</v>
+        <v>120335.4940015197</v>
       </c>
     </row>
   </sheetData>
@@ -5347,28 +5347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.78953896645125</v>
+        <v>125.0418288743377</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.7492760980804</v>
+        <v>171.0877467219522</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.4160118529662</v>
+        <v>154.7593722980173</v>
       </c>
       <c r="AD2" t="n">
-        <v>86789.53896645125</v>
+        <v>125041.8288743377</v>
       </c>
       <c r="AE2" t="n">
-        <v>118749.2760980804</v>
+        <v>171087.7467219522</v>
       </c>
       <c r="AF2" t="n">
         <v>2.543817070370701e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.337962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>107416.0118529662</v>
+        <v>154759.3722980173</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.10263961789931</v>
+        <v>102.8006511609736</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3905007029031</v>
+        <v>140.6563861630325</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.71393361830494</v>
+        <v>127.2323380801484</v>
       </c>
       <c r="AD3" t="n">
-        <v>74102.63961789932</v>
+        <v>102800.6511609736</v>
       </c>
       <c r="AE3" t="n">
-        <v>101390.5007029031</v>
+        <v>140656.3861630325</v>
       </c>
       <c r="AF3" t="n">
         <v>3.004962265657827e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.215277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>91713.93361830493</v>
+        <v>127232.3380801484</v>
       </c>
     </row>
     <row r="4">
@@ -5559,28 +5559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.03690667765558</v>
+        <v>102.7349182207299</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.3005619941291</v>
+        <v>140.5664474542585</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.63257853366646</v>
+        <v>127.1509829955099</v>
       </c>
       <c r="AD4" t="n">
-        <v>74036.90667765558</v>
+        <v>102734.9182207299</v>
       </c>
       <c r="AE4" t="n">
-        <v>101300.5619941291</v>
+        <v>140566.4474542585</v>
       </c>
       <c r="AF4" t="n">
         <v>3.011351374094385e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.203703703703705</v>
       </c>
       <c r="AH4" t="n">
-        <v>91632.57853366646</v>
+        <v>127150.98299551</v>
       </c>
     </row>
   </sheetData>
@@ -5856,28 +5856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.05798330161822</v>
+        <v>126.6623450353375</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.4848175972696</v>
+        <v>173.3050084255584</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.9859157073212</v>
+        <v>156.7650216565783</v>
       </c>
       <c r="AD2" t="n">
-        <v>88057.98330161822</v>
+        <v>126662.3450353375</v>
       </c>
       <c r="AE2" t="n">
-        <v>120484.8175972696</v>
+        <v>173305.0084255584</v>
       </c>
       <c r="AF2" t="n">
         <v>2.337953663522896e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.534722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>108985.9157073212</v>
+        <v>156765.0216565783</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.67645574042673</v>
+        <v>104.663892459497</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.5438653536111</v>
+        <v>143.2057551080755</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.66178416901629</v>
+        <v>129.5383988311391</v>
       </c>
       <c r="AD3" t="n">
-        <v>75676.45574042673</v>
+        <v>104663.892459497</v>
       </c>
       <c r="AE3" t="n">
-        <v>103543.8653536111</v>
+        <v>143205.7551080755</v>
       </c>
       <c r="AF3" t="n">
         <v>2.699281251302467e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>93661.78416901629</v>
+        <v>129538.3988311391</v>
       </c>
     </row>
     <row r="4">
@@ -6068,28 +6068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.03705886699282</v>
+        <v>103.9230103595778</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.6690143431801</v>
+        <v>142.1920475335552</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.87042771115941</v>
+        <v>128.6214380847833</v>
       </c>
       <c r="AD4" t="n">
-        <v>75037.05886699283</v>
+        <v>103923.0103595778</v>
       </c>
       <c r="AE4" t="n">
-        <v>102669.0143431801</v>
+        <v>142192.0475335552</v>
       </c>
       <c r="AF4" t="n">
         <v>2.775533768878642e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>92870.42771115941</v>
+        <v>128621.4380847832</v>
       </c>
     </row>
   </sheetData>
@@ -6365,28 +6365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.2969923472464</v>
+        <v>141.3824976731114</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.9672579542326</v>
+        <v>193.4457706718522</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.6089793003986</v>
+        <v>174.9835778218296</v>
       </c>
       <c r="AD2" t="n">
-        <v>102296.9923472464</v>
+        <v>141382.4976731114</v>
       </c>
       <c r="AE2" t="n">
-        <v>139967.2579542326</v>
+        <v>193445.7706718522</v>
       </c>
       <c r="AF2" t="n">
         <v>1.879784621726359e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.518518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>126608.9793003986</v>
+        <v>174983.5778218296</v>
       </c>
     </row>
     <row r="3">
@@ -6471,28 +6471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.08547495649499</v>
+        <v>117.1026494447984</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.8399917234611</v>
+        <v>160.2250111745851</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.6433328642713</v>
+        <v>144.9333609853424</v>
       </c>
       <c r="AD3" t="n">
-        <v>78085.47495649499</v>
+        <v>117102.6494447984</v>
       </c>
       <c r="AE3" t="n">
-        <v>106839.9917234611</v>
+        <v>160225.0111745851</v>
       </c>
       <c r="AF3" t="n">
         <v>2.31014346716232e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.93287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>96643.3328642713</v>
+        <v>144933.3609853424</v>
       </c>
     </row>
     <row r="4">
@@ -6577,28 +6577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.09972225863243</v>
+        <v>116.1168967469359</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.4912413939065</v>
+        <v>158.8762608450305</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.42330537318594</v>
+        <v>143.713333494257</v>
       </c>
       <c r="AD4" t="n">
-        <v>77099.72225863242</v>
+        <v>116116.8967469359</v>
       </c>
       <c r="AE4" t="n">
-        <v>105491.2413939065</v>
+        <v>158876.2608450305</v>
       </c>
       <c r="AF4" t="n">
         <v>2.418418463307036e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>95423.30537318594</v>
+        <v>143713.333494257</v>
       </c>
     </row>
     <row r="5">
@@ -6683,28 +6683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.47069916451508</v>
+        <v>105.6918842871238</v>
       </c>
       <c r="AB5" t="n">
-        <v>104.6305842459952</v>
+        <v>144.6122988784325</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.64478813553113</v>
+        <v>130.8107040381503</v>
       </c>
       <c r="AD5" t="n">
-        <v>76470.69916451508</v>
+        <v>105691.8842871238</v>
       </c>
       <c r="AE5" t="n">
-        <v>104630.5842459952</v>
+        <v>144612.2988784325</v>
       </c>
       <c r="AF5" t="n">
         <v>2.478308200338367e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.469907407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>94644.78813553113</v>
+        <v>130810.7040381503</v>
       </c>
     </row>
   </sheetData>
@@ -6980,28 +6980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.29977827895318</v>
+        <v>113.3445808169961</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.0284786329865</v>
+        <v>155.0830558837419</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.19558523365812</v>
+        <v>140.282146690676</v>
       </c>
       <c r="AD2" t="n">
-        <v>75299.77827895318</v>
+        <v>113344.5808169961</v>
       </c>
       <c r="AE2" t="n">
-        <v>103028.4786329865</v>
+        <v>155083.0558837419</v>
       </c>
       <c r="AF2" t="n">
         <v>2.86637005105553e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.967592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>93195.58523365812</v>
+        <v>140282.146690676</v>
       </c>
     </row>
     <row r="3">
@@ -7086,28 +7086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.20921480304773</v>
+        <v>101.7011209629611</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.1680774561028</v>
+        <v>139.1519604382637</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.60817673049698</v>
+        <v>125.8714926350763</v>
       </c>
       <c r="AD3" t="n">
-        <v>73209.21480304773</v>
+        <v>101701.1209629611</v>
       </c>
       <c r="AE3" t="n">
-        <v>100168.0774561028</v>
+        <v>139151.9604382637</v>
       </c>
       <c r="AF3" t="n">
         <v>3.248202946911508e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90608.17673049698</v>
+        <v>125871.4926350763</v>
       </c>
     </row>
   </sheetData>
@@ -7383,28 +7383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.14041600746461</v>
+        <v>100.2758963057003</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.70569979191166</v>
+        <v>137.2019051857261</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.28536633811585</v>
+        <v>124.1075479189205</v>
       </c>
       <c r="AD2" t="n">
-        <v>72140.41600746461</v>
+        <v>100275.8963057003</v>
       </c>
       <c r="AE2" t="n">
-        <v>98705.69979191165</v>
+        <v>137201.9051857261</v>
       </c>
       <c r="AF2" t="n">
         <v>3.627611160892735e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.261574074074075</v>
       </c>
       <c r="AH2" t="n">
-        <v>89285.36633811585</v>
+        <v>124107.5479189205</v>
       </c>
     </row>
     <row r="3">
@@ -7489,28 +7489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.88666781250274</v>
+        <v>100.0221481107384</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.35851031698473</v>
+        <v>136.8547157107992</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.97131213939235</v>
+        <v>123.793493720197</v>
       </c>
       <c r="AD3" t="n">
-        <v>71886.66781250274</v>
+        <v>100022.1481107384</v>
       </c>
       <c r="AE3" t="n">
-        <v>98358.51031698473</v>
+        <v>136854.7157107992</v>
       </c>
       <c r="AF3" t="n">
         <v>3.704852832766849e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.13425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>88971.31213939235</v>
+        <v>123793.493720197</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.87395425070835</v>
+        <v>98.72453669596047</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.97287094396917</v>
+        <v>135.0792665265255</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.7179162433799</v>
+        <v>122.1874909142114</v>
       </c>
       <c r="AD2" t="n">
-        <v>70873.95425070835</v>
+        <v>98724.53669596047</v>
       </c>
       <c r="AE2" t="n">
-        <v>96972.87094396917</v>
+        <v>135079.2665265255</v>
       </c>
       <c r="AF2" t="n">
         <v>4.121588810809428e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>87717.91624337991</v>
+        <v>122187.4909142113</v>
       </c>
     </row>
   </sheetData>
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.24747846840992</v>
+        <v>105.6841748583844</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.74745502358228</v>
+        <v>144.6017504979153</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.70489089504318</v>
+        <v>130.8011623802649</v>
       </c>
       <c r="AD2" t="n">
-        <v>69247.47846840993</v>
+        <v>105684.1748583844</v>
       </c>
       <c r="AE2" t="n">
-        <v>94747.45502358228</v>
+        <v>144601.7504979153</v>
       </c>
       <c r="AF2" t="n">
         <v>4.959121435499939e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.805555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>85704.89089504318</v>
+        <v>130801.1623802649</v>
       </c>
     </row>
   </sheetData>
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.37281779643718</v>
+        <v>125.7530733388202</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.5473439257126</v>
+        <v>172.0609027761479</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.1379132072247</v>
+        <v>155.639651704234</v>
       </c>
       <c r="AD2" t="n">
-        <v>87372.81779643717</v>
+        <v>125753.0733388202</v>
       </c>
       <c r="AE2" t="n">
-        <v>119547.3439257126</v>
+        <v>172060.9027761479</v>
       </c>
       <c r="AF2" t="n">
         <v>2.441935880291681e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>108137.9132072247</v>
+        <v>155639.651704234</v>
       </c>
     </row>
     <row r="3">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.85038630077152</v>
+        <v>103.6443720697183</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.4136007026638</v>
+        <v>141.8108023327158</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.63939039001866</v>
+        <v>128.2765783908308</v>
       </c>
       <c r="AD3" t="n">
-        <v>74850.38630077151</v>
+        <v>103644.3720697183</v>
       </c>
       <c r="AE3" t="n">
-        <v>102413.6007026638</v>
+        <v>141810.8023327158</v>
       </c>
       <c r="AF3" t="n">
         <v>2.848661601249045e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.36574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>92639.39039001866</v>
+        <v>128276.5783908308</v>
       </c>
     </row>
     <row r="4">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.52051596575225</v>
+        <v>103.314501734699</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.9622575574386</v>
+        <v>141.3594591874906</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.23112280110952</v>
+        <v>127.8683108019217</v>
       </c>
       <c r="AD4" t="n">
-        <v>74520.51596575226</v>
+        <v>103314.501734699</v>
       </c>
       <c r="AE4" t="n">
-        <v>101962.2575574386</v>
+        <v>141359.4591874906</v>
       </c>
       <c r="AF4" t="n">
         <v>2.89192729644444e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.261574074074075</v>
       </c>
       <c r="AH4" t="n">
-        <v>92231.12280110952</v>
+        <v>127868.3108019217</v>
       </c>
     </row>
   </sheetData>
@@ -13822,28 +13822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.9965320990693</v>
+        <v>139.8745274632041</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.1879108704206</v>
+        <v>191.3824993037074</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.9994506049358</v>
+        <v>173.1172221772404</v>
       </c>
       <c r="AD2" t="n">
-        <v>100996.5320990693</v>
+        <v>139874.5274632041</v>
       </c>
       <c r="AE2" t="n">
-        <v>138187.9108704206</v>
+        <v>191382.4993037074</v>
       </c>
       <c r="AF2" t="n">
         <v>1.989218902922594e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.229166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>124999.4506049358</v>
+        <v>173117.2221772404</v>
       </c>
     </row>
     <row r="3">
@@ -13928,28 +13928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.73714904604853</v>
+        <v>116.6482987991069</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.3633968457339</v>
+        <v>159.6033485766145</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.21222353276909</v>
+        <v>144.3710289932129</v>
       </c>
       <c r="AD3" t="n">
-        <v>77737.14904604852</v>
+        <v>116648.2987991069</v>
       </c>
       <c r="AE3" t="n">
-        <v>106363.3968457339</v>
+        <v>159603.3485766145</v>
       </c>
       <c r="AF3" t="n">
         <v>2.369412746745495e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>96212.22353276909</v>
+        <v>144371.0289932129</v>
       </c>
     </row>
     <row r="4">
@@ -14034,28 +14034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.2163197473535</v>
+        <v>105.3579863185284</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.282531105007</v>
+        <v>144.1554449472618</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.32995269782312</v>
+        <v>130.3974516049719</v>
       </c>
       <c r="AD4" t="n">
-        <v>76216.3197473535</v>
+        <v>105357.9863185284</v>
       </c>
       <c r="AE4" t="n">
-        <v>104282.531105007</v>
+        <v>144155.4449472618</v>
       </c>
       <c r="AF4" t="n">
         <v>2.542318171811213e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>94329.95269782312</v>
+        <v>130397.4516049719</v>
       </c>
     </row>
     <row r="5">
@@ -14140,28 +14140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.95757843078334</v>
+        <v>105.0992450019583</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.9285098208147</v>
+        <v>143.8014236630695</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.00971870812198</v>
+        <v>130.0772176152707</v>
       </c>
       <c r="AD5" t="n">
-        <v>75957.57843078334</v>
+        <v>105099.2450019583</v>
       </c>
       <c r="AE5" t="n">
-        <v>103928.5098208147</v>
+        <v>143801.4236630695</v>
       </c>
       <c r="AF5" t="n">
         <v>2.568593570693949e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.377314814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>94009.71870812197</v>
+        <v>130077.2176152707</v>
       </c>
     </row>
   </sheetData>
@@ -14437,28 +14437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.76410269954016</v>
+        <v>113.8827801304883</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.4002760235524</v>
+        <v>155.8194439281395</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.24558301361688</v>
+        <v>140.9482548936437</v>
       </c>
       <c r="AD2" t="n">
-        <v>77764.10269954016</v>
+        <v>113882.7801304883</v>
       </c>
       <c r="AE2" t="n">
-        <v>106400.2760235524</v>
+        <v>155819.4439281395</v>
       </c>
       <c r="AF2" t="n">
         <v>5.244904229903473e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.569444444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>96245.58301361688</v>
+        <v>140948.2548936436</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.15534211341436</v>
+        <v>101.4173458872531</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.0943664654511</v>
+        <v>138.7636868604075</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.54150061333907</v>
+        <v>125.5202753425452</v>
       </c>
       <c r="AD2" t="n">
-        <v>73155.34211341436</v>
+        <v>101417.3458872531</v>
       </c>
       <c r="AE2" t="n">
-        <v>100094.3664654511</v>
+        <v>138763.6868604075</v>
       </c>
       <c r="AF2" t="n">
         <v>3.343080671935983e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.481481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>90541.50061333907</v>
+        <v>125520.2753425452</v>
       </c>
     </row>
     <row r="3">
@@ -14840,28 +14840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.23924677682565</v>
+        <v>100.5012505506644</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.84092441065717</v>
+        <v>137.5102448056135</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.4076853090373</v>
+        <v>124.3864600382434</v>
       </c>
       <c r="AD3" t="n">
-        <v>72239.24677682565</v>
+        <v>100501.2505506644</v>
       </c>
       <c r="AE3" t="n">
-        <v>98840.92441065717</v>
+        <v>137510.2448056135</v>
       </c>
       <c r="AF3" t="n">
         <v>3.565494851053767e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>89407.6853090373</v>
+        <v>124386.4600382434</v>
       </c>
     </row>
   </sheetData>
@@ -15137,28 +15137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.08652983868568</v>
+        <v>114.7182192971282</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.7873879948982</v>
+        <v>156.9625286529105</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.545925000333</v>
+        <v>141.9822452166124</v>
       </c>
       <c r="AD2" t="n">
-        <v>86086.52983868567</v>
+        <v>114718.2192971282</v>
       </c>
       <c r="AE2" t="n">
-        <v>117787.3879948982</v>
+        <v>156962.5286529105</v>
       </c>
       <c r="AF2" t="n">
         <v>2.666881252552759e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.233796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>106545.925000333</v>
+        <v>141982.2452166124</v>
       </c>
     </row>
     <row r="3">
@@ -15243,28 +15243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.74664582839192</v>
+        <v>102.3441698680537</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9034142947618</v>
+        <v>140.0318083195264</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.27333405332638</v>
+        <v>126.6673690694258</v>
       </c>
       <c r="AD3" t="n">
-        <v>73746.64582839192</v>
+        <v>102344.1698680537</v>
       </c>
       <c r="AE3" t="n">
-        <v>100903.4142947618</v>
+        <v>140031.8083195264</v>
       </c>
       <c r="AF3" t="n">
         <v>3.093317636112662e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.238425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>91273.33405332638</v>
+        <v>126667.3690694258</v>
       </c>
     </row>
     <row r="4">
@@ -15349,28 +15349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.62750738907943</v>
+        <v>102.2250314287412</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.7404038260776</v>
+        <v>139.8687978508421</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.12588107498665</v>
+        <v>126.5199160910861</v>
       </c>
       <c r="AD4" t="n">
-        <v>73627.50738907943</v>
+        <v>102225.0314287412</v>
       </c>
       <c r="AE4" t="n">
-        <v>100740.4038260776</v>
+        <v>139868.7978508421</v>
       </c>
       <c r="AF4" t="n">
         <v>3.13207700574106e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>91125.88107498665</v>
+        <v>126519.9160910861</v>
       </c>
     </row>
   </sheetData>
